--- a/作業フォルダー/従業員名簿.xlsx
+++ b/作業フォルダー/従業員名簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\作業フォルダー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7853C5C0-854A-45A7-A74C-2B5F1D3083CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C8CE3-211E-4EF3-A11C-7FE877374AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{1917876F-FF2E-47F6-B2D6-1E91C9F531A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{1917876F-FF2E-47F6-B2D6-1E91C9F531A1}"/>
   </bookViews>
   <sheets>
     <sheet name="名簿" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -114,13 +114,6 @@
       <t>エイギョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小柳　朋加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コヤナギ　トモカ</t>
   </si>
   <si>
     <t>運転免許証</t>
@@ -236,22 +229,7 @@
     <t>普通預金</t>
   </si>
   <si>
-    <t>佐々木　珠那</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ササキジュナ</t>
-  </si>
-  <si>
-    <t>ササキ　ジュナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今村　将裕</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>09065562467</t>
   </si>
   <si>
     <t>566-0046</t>
@@ -303,21 +281,6 @@
     <t>0134368</t>
   </si>
   <si>
-    <t>イマムラ　マサヒロ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コヤナギ　トモカ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>北 拓実</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キタ タクミ</t>
-  </si>
-  <si>
     <t>09094596070</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -341,6 +304,147 @@
   </si>
   <si>
     <t>6919393</t>
+  </si>
+  <si>
+    <t>小柳朋加</t>
+  </si>
+  <si>
+    <t>コヤナギトモカ</t>
+  </si>
+  <si>
+    <t>今村将裕</t>
+  </si>
+  <si>
+    <t>イマムラマサヒロ</t>
+  </si>
+  <si>
+    <t>佐々木珠那</t>
+  </si>
+  <si>
+    <t>北拓実</t>
+  </si>
+  <si>
+    <t>キタタクミ</t>
+  </si>
+  <si>
+    <t>木村充志</t>
+  </si>
+  <si>
+    <t>キムラアツシ</t>
+  </si>
+  <si>
+    <t>08063168233</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>594-0022</t>
+  </si>
+  <si>
+    <t>大阪府和泉市黒鳥町601-2 2棟305号</t>
+  </si>
+  <si>
+    <t>関西みらい銀行</t>
+  </si>
+  <si>
+    <t>難波支店</t>
+  </si>
+  <si>
+    <t>302</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0594408</t>
+  </si>
+  <si>
+    <t>岡田愛夢</t>
+  </si>
+  <si>
+    <t>オカダアイム</t>
+  </si>
+  <si>
+    <t>大阪府豊中市原田元町2-3-9パルムズコート大阪曽根 103</t>
+  </si>
+  <si>
+    <t>561-0808</t>
+  </si>
+  <si>
+    <t>りそな銀行</t>
+  </si>
+  <si>
+    <t>豊中服部支店</t>
+  </si>
+  <si>
+    <t>451</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1394076</t>
+  </si>
+  <si>
+    <t>日髙康平</t>
+  </si>
+  <si>
+    <t>ヒダカコウヘイ</t>
+  </si>
+  <si>
+    <t>大阪府大阪狭山市池尻中3-14-5</t>
+  </si>
+  <si>
+    <t>589-0007</t>
+  </si>
+  <si>
+    <t>PayPay銀行</t>
+  </si>
+  <si>
+    <t>つばめ支店</t>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5907344</t>
+  </si>
+  <si>
+    <t>坂田歩美</t>
+  </si>
+  <si>
+    <t>サカタアユミ</t>
+  </si>
+  <si>
+    <t>大阪府大阪市旭区赤川3-6-8-407</t>
+  </si>
+  <si>
+    <t>535-0005</t>
+  </si>
+  <si>
+    <t>なし</t>
+  </si>
+  <si>
+    <t>給料は手渡し</t>
+    <rPh sb="0" eb="2">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09065562467</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>08068587811</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>07024168064</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>09025970717</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -453,15 +557,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -478,6 +579,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,9 +589,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -809,17 +910,17 @@
   </sheetPr>
   <dimension ref="A2:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="6.5" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="8" width="27.58203125" customWidth="1"/>
     <col min="9" max="9" width="57.08203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.58203125" bestFit="1" customWidth="1"/>
@@ -832,12 +933,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="32.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8" t="s">
@@ -862,16 +963,16 @@
         <v>8</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -894,608 +995,816 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="O5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>35886</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>43831</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="6">
+        <v>161</v>
+      </c>
+      <c r="N6" s="6">
+        <v>2150677</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="7">
-        <v>161</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2150677</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>49</v>
+      <c r="P6" s="1" t="str">
+        <f>IF(ISBLANK(A6)=FALSE,A6,"")</f>
+        <v>小柳朋加</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f>IF(ISBLANK(B6)=FALSE,B6,"")</f>
+        <v>コヤナギトモカ</v>
       </c>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3">
+        <v>36956</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4">
-        <v>36956</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="O7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="P7" s="1" t="str">
+        <f t="shared" ref="P7:P28" si="0">IF(ISBLANK(A7)=FALSE,A7,"")</f>
+        <v>今村将裕</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" ref="Q7:Q28" si="1">IF(ISBLANK(B7)=FALSE,B7,"")</f>
+        <v>イマムラマサヒロ</v>
       </c>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>35868</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="O8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="P8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>佐々木珠那</v>
+      </c>
+      <c r="Q8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ササキジュナ</v>
       </c>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>35682</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>53</v>
+      <c r="F9" s="3"/>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>北拓実</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>キタタクミ</v>
+      </c>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="3">
+        <v>35703</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="H10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>木村充志</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>キムラアツシ</v>
+      </c>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="3">
+        <v>37685</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>岡田愛夢</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>オカダアイム</v>
+      </c>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="3">
+        <v>35177</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>日髙康平</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>ヒダカコウヘイ</v>
+      </c>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="3">
+        <v>36358</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="P18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="P19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="P20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="P21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="P22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="P23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="P24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="P25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="P26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="P27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="P28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="R28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1503,14 +1812,10 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I2:L2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J28" xr:uid="{5310B9AB-762B-4791-A013-B27770A265B5}">
       <formula1>"　,あり,あり(MT),なし"</formula1>
     </dataValidation>
